--- a/doc/接口文档/养殖类目接口.xlsx
+++ b/doc/接口文档/养殖类目接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="10485" activeTab="2"/>
+    <workbookView windowWidth="22515" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="养殖类目" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>添加养殖类目</t>
   </si>
@@ -104,6 +104,12 @@
     <t>对应类目选项Id</t>
   </si>
   <si>
+    <t>selectName</t>
+  </si>
+  <si>
+    <t>对应类目选项名称</t>
+  </si>
+  <si>
     <t>删除养殖类目</t>
   </si>
   <si>
@@ -161,9 +167,6 @@
     <t>/breed/select/save.action</t>
   </si>
   <si>
-    <t>selectName</t>
-  </si>
-  <si>
     <t>选项名称</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>对应类目Id</t>
   </si>
   <si>
+    <t>对应类目名称</t>
+  </si>
+  <si>
     <t>删除选项</t>
   </si>
   <si>
@@ -194,7 +200,7 @@
     <t>获取选项详情</t>
   </si>
   <si>
-    <t>/user/get.action</t>
+    <t>/breed/select/get.action</t>
   </si>
   <si>
     <t>添加类目信息</t>
@@ -240,6 +246,9 @@
   </si>
   <si>
     <t>获取类目信息详情</t>
+  </si>
+  <si>
+    <t>/breed/info/get.action</t>
   </si>
 </sst>
 </file>
@@ -248,9 +257,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -282,6 +291,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -291,7 +361,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -299,7 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,30 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,26 +400,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,29 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,25 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,37 +562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,31 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,26 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +681,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,22 +720,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,8 +728,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,100 +756,100 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,28 +858,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1459,9 +1468,33 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+    </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1541,7 +1574,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1606,7 +1639,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
@@ -1625,7 +1658,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1705,7 +1738,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1770,7 +1803,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
@@ -1835,9 +1868,33 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
     </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10"/>
+    </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1917,7 +1974,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1982,20 +2039,20 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -2010,16 +2067,16 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2035,13 +2092,17 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="F54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
@@ -2101,9 +2162,33 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
     </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="10"/>
+    </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2183,7 +2268,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2248,7 +2333,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
@@ -2257,7 +2342,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -2279,7 +2364,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
@@ -2339,8 +2424,32 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="10"/>
     </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="176">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -2369,6 +2478,8 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="A19:D19"/>
@@ -2425,6 +2536,8 @@
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="A49:D49"/>
@@ -2452,6 +2565,8 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="K53:O53"/>
     <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="P54:Q54"/>
@@ -2461,6 +2576,10 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:O57"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="A67:D67"/>
@@ -2498,6 +2617,10 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:O73"/>
     <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:O74"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A17:O18"/>
     <mergeCell ref="A32:O33"/>
@@ -2513,17 +2636,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:J57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2603,7 +2726,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2668,11 +2791,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2681,7 +2804,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2696,11 +2819,11 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2714,24 +2837,28 @@
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4"/>
@@ -2935,7 +3062,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3015,7 +3142,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3084,7 +3211,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -3259,7 +3386,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3339,7 +3466,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3408,7 +3535,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3428,11 +3555,11 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3446,48 +3573,52 @@
       <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="10"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4"/>
@@ -3631,7 +3762,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3711,7 +3842,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3776,20 +3907,20 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -3804,16 +3935,16 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3829,17 +3960,21 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="F56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -3859,11 +3994,11 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -3883,11 +4018,11 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -3896,24 +4031,28 @@
       <c r="R58" s="10"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="4"/>
@@ -4037,7 +4176,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4117,7 +4256,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4186,12 +4325,12 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -4217,7 +4356,7 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4237,11 +4376,11 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4261,11 +4400,11 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4273,8 +4412,32 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
     </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="164">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -4303,6 +4466,11 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="A21:D21"/>
@@ -4347,6 +4515,14 @@
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="A51:D51"/>
@@ -4381,6 +4557,11 @@
     <mergeCell ref="H58:J58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:O58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:Q59"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="P67:Q67"/>
     <mergeCell ref="A68:D68"/>
@@ -4411,6 +4592,11 @@
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="P75:Q75"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A33:O34"/>
@@ -4426,17 +4612,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4516,7 +4702,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4581,11 +4767,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4594,7 +4780,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -4609,11 +4795,11 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4651,24 +4837,28 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4"/>
@@ -4831,33 +5021,29 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10">
-        <v>100</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4873,96 +5059,92 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -4977,17 +5159,21 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="10"/>
@@ -4995,24 +5181,28 @@
       <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4"/>
@@ -5155,33 +5345,29 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10">
-        <v>100</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5197,96 +5383,92 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -5295,25 +5477,29 @@
       <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="K37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -5325,11 +5511,11 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5343,92 +5529,100 @@
       <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4"/>
@@ -5531,33 +5725,29 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="10">
-        <v>100</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5573,96 +5763,92 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:18">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F52" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -5676,21 +5862,21 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -5705,21 +5891,23 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="K54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -5730,20 +5918,22 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="K55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -5754,17 +5944,21 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5784,11 +5978,11 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5808,11 +6002,11 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -5845,24 +6039,28 @@
       <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="10"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="4"/>
@@ -5945,236 +6143,210 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="9" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="10">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="9" t="s">
+    <row r="71" spans="1:18">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="10">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="2" t="s">
+    <row r="72" spans="1:18">
+      <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -6188,20 +6360,24 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+      <c r="K74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
@@ -6212,26 +6388,148 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
+      <c r="K75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
     </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="165">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -6262,17 +6560,15 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
@@ -6281,17 +6577,17 @@
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="K36:L36"/>
@@ -6306,19 +6602,21 @@
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:O39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:Q50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="K51:O51"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="K52:L52"/>
@@ -6329,11 +6627,11 @@
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K55:O55"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="K56:L56"/>
@@ -6350,32 +6648,17 @@
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:O70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
@@ -6386,13 +6669,32 @@
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:O80"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A18:O19"/>
-    <mergeCell ref="A32:O33"/>
-    <mergeCell ref="A48:O49"/>
-    <mergeCell ref="A65:O66"/>
+    <mergeCell ref="A19:O20"/>
+    <mergeCell ref="A33:O34"/>
+    <mergeCell ref="A49:O50"/>
+    <mergeCell ref="A70:O71"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/接口文档/养殖类目接口.xlsx
+++ b/doc/接口文档/养殖类目接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="10485" activeTab="1"/>
+    <workbookView windowWidth="22515" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="养殖类目" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>result(json对象)</t>
   </si>
   <si>
-    <t>添加选项</t>
+    <t>添加类目选项</t>
   </si>
   <si>
     <t>/breed/select/save.action</t>
@@ -179,25 +179,25 @@
     <t>对应类目名称</t>
   </si>
   <si>
-    <t>删除选项</t>
+    <t>删除类目选项</t>
   </si>
   <si>
     <t>/breed/select/remove.action</t>
   </si>
   <si>
-    <t>修改选项</t>
+    <t>修改类目选项</t>
   </si>
   <si>
     <t>/breed/select/update.action</t>
   </si>
   <si>
-    <t>获取选项列表</t>
+    <t>获取类目选项列表</t>
   </si>
   <si>
     <t>/breed/select/list.action</t>
   </si>
   <si>
-    <t>获取选项详情</t>
+    <t>获取类目选项详情</t>
   </si>
   <si>
     <t>/breed/select/get.action</t>
@@ -256,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -291,15 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,33 +309,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,8 +323,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,33 +347,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,8 +375,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,19 +466,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,55 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,19 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +633,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,6 +670,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -662,21 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,24 +733,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,100 +753,100 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,28 +858,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:G54"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2638,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:J54"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74:L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4614,8 +4614,8 @@
   <sheetPr/>
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78:O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
